--- a/excel_sheets/data.xlsx
+++ b/excel_sheets/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/Library/Containers/com.microsoft.Excel/Data/tmp/Microsoft Office Send Mail/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/Desktop/GitHub/Universal-Stat-Analysis/excel_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B861698-8FC6-514A-B6A0-B75A3271DD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55669CC-AA79-AD43-8995-4CFD07DD46E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12240" yWindow="500" windowWidth="16180" windowHeight="16380" xr2:uid="{C7432BAC-9984-F94C-B323-37080EF5A981}"/>
+    <workbookView xWindow="12620" yWindow="6000" windowWidth="16180" windowHeight="8500" xr2:uid="{C7432BAC-9984-F94C-B323-37080EF5A981}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Cohort</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>SM_B_Trial 3</t>
+  </si>
+  <si>
+    <t>ParticipantID</t>
   </si>
 </sst>
 </file>
@@ -461,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DA2651-EFA8-5F4C-8C72-2BE4A70AE88C}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,95 +475,98 @@
     <col min="12" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>123456</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>5.6</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>6.3</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>5.6</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>6</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>4</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>5.6</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>6.3</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>5.6</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>5</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0</v>
-      </c>
-      <c r="M2">
-        <v>6.3</v>
       </c>
       <c r="N2">
         <v>6.3</v>
@@ -571,46 +577,49 @@
       <c r="P2">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>984736</v>
+      </c>
+      <c r="B3">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>3.6</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>3.7</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>3.6</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
       </c>
       <c r="F3">
         <v>4</v>
       </c>
       <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
         <v>3.6</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>3.7</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>3.6</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>19</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>6</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0</v>
-      </c>
-      <c r="M3">
-        <v>3.7</v>
       </c>
       <c r="N3">
         <v>3.7</v>
@@ -621,14 +630,17 @@
       <c r="P3">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>582838</v>
+      </c>
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>2.6</v>
-      </c>
       <c r="C4">
         <v>2.6</v>
       </c>
@@ -636,14 +648,14 @@
         <v>2.6</v>
       </c>
       <c r="E4">
+        <v>2.6</v>
+      </c>
+      <c r="F4">
         <v>8</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>7</v>
       </c>
-      <c r="G4">
-        <v>2.6</v>
-      </c>
       <c r="H4">
         <v>2.6</v>
       </c>
@@ -651,17 +663,17 @@
         <v>2.6</v>
       </c>
       <c r="J4">
+        <v>2.6</v>
+      </c>
+      <c r="K4">
         <v>20</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>5</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>2</v>
       </c>
-      <c r="M4">
-        <v>2.6</v>
-      </c>
       <c r="N4">
         <v>2.6</v>
       </c>
@@ -671,14 +683,17 @@
       <c r="P4">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
+        <v>592936</v>
+      </c>
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>3.5</v>
-      </c>
       <c r="C5">
         <v>3.5</v>
       </c>
@@ -686,13 +701,13 @@
         <v>3.5</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="F5">
         <v>9</v>
       </c>
       <c r="G5">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>3.5</v>
@@ -701,17 +716,17 @@
         <v>3.5</v>
       </c>
       <c r="J5">
+        <v>3.5</v>
+      </c>
+      <c r="K5">
         <v>19</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>6</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>4</v>
       </c>
-      <c r="M5">
-        <v>3.5</v>
-      </c>
       <c r="N5">
         <v>3.5</v>
       </c>
@@ -721,47 +736,50 @@
       <c r="P5">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
+        <v>496939</v>
+      </c>
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>2.7</v>
       </c>
-      <c r="C6">
-        <v>2.5</v>
-      </c>
       <c r="D6">
         <v>2.5</v>
       </c>
       <c r="E6">
+        <v>2.5</v>
+      </c>
+      <c r="F6">
         <v>10</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2.7</v>
       </c>
-      <c r="H6">
-        <v>2.5</v>
-      </c>
       <c r="I6">
         <v>2.5</v>
       </c>
       <c r="J6">
+        <v>2.5</v>
+      </c>
+      <c r="K6">
         <v>21</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>6</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2</v>
       </c>
-      <c r="M6">
-        <v>2.5</v>
-      </c>
       <c r="N6">
         <v>2.5</v>
       </c>
@@ -771,46 +789,49 @@
       <c r="P6">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
+        <v>493848</v>
+      </c>
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="B7">
-        <v>3.5</v>
-      </c>
       <c r="C7">
+        <v>3.5</v>
+      </c>
+      <c r="D7">
         <v>4.5</v>
       </c>
-      <c r="D7">
-        <v>3.5</v>
-      </c>
       <c r="E7">
+        <v>3.5</v>
+      </c>
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>9</v>
       </c>
-      <c r="G7">
-        <v>3.5</v>
-      </c>
       <c r="H7">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="I7">
         <v>2.6</v>
       </c>
       <c r="J7">
+        <v>2.6</v>
+      </c>
+      <c r="K7">
         <v>25</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>5</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0</v>
-      </c>
-      <c r="M7">
-        <v>4.5</v>
       </c>
       <c r="N7">
         <v>4.5</v>
@@ -821,47 +842,50 @@
       <c r="P7">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
+        <v>394829</v>
+      </c>
+      <c r="B8">
         <v>2</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>3.2</v>
       </c>
-      <c r="C8">
-        <v>3.5</v>
-      </c>
       <c r="D8">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E8">
+        <v>2.5</v>
+      </c>
+      <c r="F8">
         <v>6</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>10</v>
       </c>
-      <c r="G8">
-        <v>2.5</v>
-      </c>
       <c r="H8">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="I8">
         <v>3.5</v>
       </c>
       <c r="J8">
+        <v>3.5</v>
+      </c>
+      <c r="K8">
         <v>27</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>5</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>2</v>
       </c>
-      <c r="M8">
-        <v>3.5</v>
-      </c>
       <c r="N8">
         <v>3.5</v>
       </c>
@@ -871,47 +895,50 @@
       <c r="P8">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
+        <v>206848</v>
+      </c>
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>2.4</v>
       </c>
-      <c r="C9">
-        <v>3.5</v>
-      </c>
       <c r="D9">
         <v>3.5</v>
       </c>
       <c r="E9">
+        <v>3.5</v>
+      </c>
+      <c r="F9">
         <v>6</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>5</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>4.5</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2.7</v>
       </c>
-      <c r="I9">
-        <v>2.5</v>
-      </c>
       <c r="J9">
+        <v>2.5</v>
+      </c>
+      <c r="K9">
         <v>25</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>6</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>2</v>
       </c>
-      <c r="M9">
-        <v>3.5</v>
-      </c>
       <c r="N9">
         <v>3.5</v>
       </c>
@@ -921,47 +948,50 @@
       <c r="P9">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
+        <v>257283</v>
+      </c>
+      <c r="B10">
         <v>4</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C10">
-        <v>2.5</v>
-      </c>
       <c r="D10">
         <v>2.5</v>
       </c>
       <c r="E10">
+        <v>2.5</v>
+      </c>
+      <c r="F10">
         <v>3</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>6</v>
       </c>
-      <c r="G10">
-        <v>3.5</v>
-      </c>
       <c r="H10">
         <v>3.5</v>
       </c>
       <c r="I10">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="J10">
+        <v>2.6</v>
+      </c>
+      <c r="K10">
         <v>22</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>5</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>3</v>
       </c>
-      <c r="M10">
-        <v>2.5</v>
-      </c>
       <c r="N10">
         <v>2.5</v>
       </c>
@@ -971,46 +1001,49 @@
       <c r="P10">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
+        <v>392048</v>
+      </c>
+      <c r="B11">
         <v>2</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>2.4</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>4.5</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>8</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>6</v>
       </c>
-      <c r="G11">
-        <v>3.5</v>
-      </c>
       <c r="H11">
+        <v>3.5</v>
+      </c>
+      <c r="I11">
         <v>3.2</v>
       </c>
-      <c r="I11">
-        <v>3.5</v>
-      </c>
       <c r="J11">
+        <v>3.5</v>
+      </c>
+      <c r="K11">
         <v>19</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>6</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>2</v>
-      </c>
-      <c r="M11">
-        <v>4.5999999999999996</v>
       </c>
       <c r="N11">
         <v>4.5999999999999996</v>
@@ -1021,47 +1054,50 @@
       <c r="P11">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
+        <v>978389</v>
+      </c>
+      <c r="B12">
         <v>3</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>1.5</v>
       </c>
-      <c r="C12">
-        <v>2.5</v>
-      </c>
       <c r="D12">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E12">
+        <v>3.5</v>
+      </c>
+      <c r="F12">
         <v>8</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>3</v>
       </c>
-      <c r="G12">
-        <v>2.5</v>
-      </c>
       <c r="H12">
+        <v>2.5</v>
+      </c>
+      <c r="I12">
         <v>2.4</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>2.7</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>29</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>6</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>3</v>
       </c>
-      <c r="M12">
-        <v>2.5</v>
-      </c>
       <c r="N12">
         <v>2.5</v>
       </c>
@@ -1071,47 +1107,50 @@
       <c r="P12">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
+        <v>296849</v>
+      </c>
+      <c r="B13">
         <v>4</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>4.5</v>
       </c>
-      <c r="C13">
-        <v>2.6</v>
-      </c>
       <c r="D13">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="E13">
+        <v>3.5</v>
+      </c>
+      <c r="F13">
         <v>9</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>8</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>5.7</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>7.5</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>6.8</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>18</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>5</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>3</v>
       </c>
-      <c r="M13">
-        <v>2.6</v>
-      </c>
       <c r="N13">
         <v>2.6</v>
       </c>
@@ -1119,6 +1158,9 @@
         <v>2.6</v>
       </c>
       <c r="P13">
+        <v>2.6</v>
+      </c>
+      <c r="Q13">
         <v>2.6</v>
       </c>
     </row>
